--- a/WebContent/Templet/1.付款凭证-任务考核表-维护类开发-测评业务线-纸质签字版反馈综合室（各公司总表） - 模板.xlsx
+++ b/WebContent/Templet/1.付款凭证-任务考核表-维护类开发-测评业务线-纸质签字版反馈综合室（各公司总表） - 模板.xlsx
@@ -90,7 +90,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,25 +157,9 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -311,7 +295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -330,66 +314,31 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -398,19 +347,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -720,7 +669,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -733,46 +682,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" s="32" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="31"/>
+    <row r="2" spans="1:15" s="17" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:15" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -813,314 +762,310 @@
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20">
+    <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="25"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="25"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="15"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="20">
+    <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="20">
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="20">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20">
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="23"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20">
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
         <v>7</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="26"/>
-    </row>
-    <row r="11" spans="1:15" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
         <v>8</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="26"/>
-    </row>
-    <row r="12" spans="1:15" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10">
         <v>9</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="26"/>
-    </row>
-    <row r="13" spans="1:15" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20">
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
         <v>10</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="26"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
     </row>
     <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
